--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados4.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,145 +380,150 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>AMT_CREDIT_YEARS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AMT_CREDIT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>NAME_TYPE_SUITE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NAME_INCOME_TYPE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NAME_EDUCATION_TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NAME_FAMILY_STATUS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NAME_HOUSING_TYPE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FLAG_PHONE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>OCCUPATION_TYPE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>WEEKDAY_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZATION_TYPE</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>AMT_REQ_CREDIT_BUREAU</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DEF_CNT_SOCIAL_CIRCLE</t>
         </is>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados4.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,170 +360,175 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>SK_ID_CURR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>CODE_GENDER</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CNT_CHILDREN</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>AMT_INCOME_TOTAL</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AMT_CREDIT_YEARS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AMT_CREDIT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NAME_TYPE_SUITE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NAME_INCOME_TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NAME_EDUCATION_TYPE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NAME_FAMILY_STATUS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NAME_HOUSING_TYPE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FLAG_PHONE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>OCCUPATION_TYPE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>WEEKDAY_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZATION_TYPE</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>AMT_REQ_CREDIT_BUREAU</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>DEF_CNT_SOCIAL_CIRCLE</t>
         </is>
